--- a/SP_Sklad/Rep/TurnMoney(23).xlsx
+++ b/SP_Sklad/Rep/TurnMoney(23).xlsx
@@ -1020,9 +1020,8 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="19" t="e">
-        <f>DocList1_NUM</f>
-        <v>#NAME?</v>
+      <c r="B8" s="19">
+        <v>1</v>
       </c>
       <c r="C8" s="20">
         <v>42612.349605868054</v>
@@ -1130,9 +1129,8 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="19" t="e">
-        <f>DocList2_NUM</f>
-        <v>#NAME?</v>
+      <c r="B14" s="19">
+        <v>1</v>
       </c>
       <c r="C14" s="20">
         <v>42611.698744872687</v>
@@ -1232,9 +1230,8 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="19" t="e">
-        <f>DocList3_NUM</f>
-        <v>#NAME?</v>
+      <c r="B20" s="19">
+        <v>1</v>
       </c>
       <c r="C20" s="20">
         <v>42621.399335879629</v>
@@ -1347,9 +1344,8 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="19" t="e">
-        <f>DocList4_NUM</f>
-        <v>#NAME?</v>
+      <c r="B26" s="19">
+        <v>1</v>
       </c>
       <c r="C26" s="20">
         <v>42614.59872091435</v>
